--- a/resources/output.xlsx
+++ b/resources/output.xlsx
@@ -40,7 +40,7 @@
     <t>tcp</t>
   </si>
   <si>
-    <t>None</t>
+    <t>*</t>
   </si>
 </sst>
 </file>

--- a/resources/output.xlsx
+++ b/resources/output.xlsx
@@ -14,21 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
-  <si>
-    <t>SRC</t>
-  </si>
-  <si>
-    <t>DST</t>
-  </si>
-  <si>
-    <t>PROTOCOL</t>
-  </si>
-  <si>
-    <t>SRC PORT</t>
-  </si>
-  <si>
-    <t>DST PORT</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Source / Destination</t>
   </si>
   <si>
     <t>lan</t>
@@ -37,26 +25,33 @@
     <t>opt1</t>
   </si>
   <si>
-    <t>tcp</t>
-  </si>
-  <si>
-    <t>*</t>
+    <t>wan</t>
+  </si>
+  <si>
+    <t>(tcp) ftp : 21
+(tcp) ssh : 22
+(tcp) dns : 53</t>
+  </si>
+  <si>
+    <t>(tcp) ms-wbt-server : 3389
+(tcp) smtp : 25
+(tcp) pop3 : 110
+(tcp) telnet : 23</t>
+  </si>
+  <si>
+    <t>(tcp) openvpn : 1194
+(tcp) https : 443</t>
+  </si>
+  <si>
+    <t>(tcp) dns : 53</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -72,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -80,30 +75,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,102 +375,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2">
-        <v>21</v>
-      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3">
-        <v>22</v>
-      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
         <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5">
-        <v>3389</v>
       </c>
     </row>
   </sheetData>

--- a/resources/output.xlsx
+++ b/resources/output.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,20 +478,6 @@
         </is>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>lan</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr"/>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Protocol : * - Port : *
-Protocol : * - Port : *</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/resources/output.xlsx
+++ b/resources/output.xlsx
@@ -422,7 +422,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,8 +431,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="20" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="23" customWidth="1" min="3" max="3"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="27" customWidth="1" min="3" max="3"/>
+    <col width="27" customWidth="1" min="4" max="4"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1">
@@ -443,38 +445,51 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>178.3.4.0/22</t>
+          <t>10.0.0.0/24</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>10.0.0.34/32</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>10.0.0.49/32</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>10.0.0.23/32</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="30" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
           <t>*</t>
         </is>
       </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>127.0.0.42/32</t>
-        </is>
-      </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>Protocol : TCP - Port : (53, 5060)</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr"/>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
           <t>Protocol : * - Port : *</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Protocol : TCP - Port : 80
+Protocol : TCP - Port : 443</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Protocol : TCP - Port : 143
+Protocol : TCP - Port : 993</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Protocol : UDP - Port : 389</t>
         </is>
       </c>
     </row>
